--- a/new_modules/Summary_2023-06-09_L2A.xlsx
+++ b/new_modules/Summary_2023-06-09_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1286.6279296875</v>
+        <v>1286.380859375</v>
       </c>
       <c r="C2">
-        <v>0.9651999999999999</v>
+        <v>0.965</v>
       </c>
       <c r="D2">
-        <v>0.9169999957084656</v>
+        <v>0.9168000221252441</v>
       </c>
       <c r="E2">
-        <v>1.582399964332581</v>
+        <v>1.582100033760071</v>
       </c>
       <c r="F2">
-        <v>0.667900025844574</v>
+        <v>0.6678000092506409</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.8628</v>
+        <v>0.8612</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1192.634887695312</v>
+        <v>1192.406005859375</v>
       </c>
       <c r="C3">
-        <v>0.9540999999999999</v>
+        <v>0.9539</v>
       </c>
       <c r="D3">
-        <v>0.9296</v>
+        <v>0.9294</v>
       </c>
       <c r="E3">
-        <v>2.006799936294556</v>
+        <v>2.006400108337402</v>
       </c>
       <c r="F3">
-        <v>0.7150999903678894</v>
+        <v>0.7149999737739563</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.9745</v>
+        <v>0.9729</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>698.6878051757812</v>
+        <v>698.5535888671875</v>
       </c>
       <c r="C4">
-        <v>0.8162</v>
+        <v>0.8161</v>
       </c>
       <c r="D4">
-        <v>0.8084</v>
+        <v>0.8083</v>
       </c>
       <c r="E4">
-        <v>1.071099996566772</v>
+        <v>1.070899963378906</v>
       </c>
       <c r="F4">
-        <v>0.6567000150680542</v>
+        <v>0.6565999984741211</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>-0.09909999999999999</v>
+        <v>-0.1004</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>689.9500122070312</v>
+        <v>689.817626953125</v>
       </c>
       <c r="C5">
-        <v>0.7278</v>
+        <v>0.7277</v>
       </c>
       <c r="D5">
-        <v>0.7224</v>
+        <v>0.7223000000000001</v>
       </c>
       <c r="E5">
-        <v>1.173400044441223</v>
+        <v>1.173200011253357</v>
       </c>
       <c r="F5">
-        <v>0.6254000067710876</v>
+        <v>0.6252999901771545</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>-0.8607</v>
+        <v>-0.8619</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1083.741821289062</v>
+        <v>1083.53369140625</v>
       </c>
       <c r="C6">
-        <v>0.8574000000000001</v>
+        <v>0.8572</v>
       </c>
       <c r="D6">
-        <v>0.8611</v>
+        <v>0.861</v>
       </c>
       <c r="E6">
-        <v>1.207000017166138</v>
+        <v>1.206799983978271</v>
       </c>
       <c r="F6">
-        <v>0.661300003528595</v>
+        <v>0.6611999869346619</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.368</v>
+        <v>0.3666</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>930.1041259765625</v>
+        <v>929.9254760742188</v>
       </c>
       <c r="C7">
-        <v>0.9367</v>
+        <v>0.9365</v>
       </c>
       <c r="D7">
-        <v>0.930400013923645</v>
+        <v>0.9301999807357788</v>
       </c>
       <c r="E7">
-        <v>1.340700030326843</v>
+        <v>1.340499997138977</v>
       </c>
       <c r="F7">
-        <v>0.7461000084877014</v>
+        <v>0.7458999752998352</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.9816</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1049.326416015625</v>
+        <v>1049.125</v>
       </c>
       <c r="C8">
-        <v>0.9403</v>
+        <v>0.9401</v>
       </c>
       <c r="D8">
-        <v>0.93</v>
+        <v>0.9298</v>
       </c>
       <c r="E8">
-        <v>1.392500042915344</v>
+        <v>1.392300009727478</v>
       </c>
       <c r="F8">
-        <v>0.7936999797821045</v>
+        <v>0.7936000227928162</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.9777</v>
+        <v>0.9761</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6931.072265625</v>
+        <v>6929.74169921875</v>
       </c>
       <c r="C9">
-        <v>0.8931</v>
+        <v>0.893</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>2.006799936294556</v>
+        <v>2.006400108337402</v>
       </c>
       <c r="F9">
-        <v>0.6254000067710876</v>
+        <v>0.6252999901771545</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.2048</v>
+        <v>3.1945</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-06-09_L2A.xlsx
+++ b/new_modules/Summary_2023-06-09_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1286.380859375</v>
+        <v>1274.23779296875</v>
       </c>
       <c r="C2">
-        <v>0.965</v>
+        <v>0.9559</v>
       </c>
       <c r="D2">
-        <v>0.9168000221252441</v>
+        <v>0.9169999957084656</v>
       </c>
       <c r="E2">
-        <v>1.582100033760071</v>
+        <v>1.233299970626831</v>
       </c>
       <c r="F2">
-        <v>0.6678000092506409</v>
+        <v>0.8217999935150146</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.8612</v>
+        <v>0.8628</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1192.406005859375</v>
+        <v>1143.4365234375</v>
       </c>
       <c r="C3">
-        <v>0.9539</v>
+        <v>0.9147</v>
       </c>
       <c r="D3">
-        <v>0.9294</v>
+        <v>0.9035</v>
       </c>
       <c r="E3">
-        <v>2.006400108337402</v>
+        <v>1.264700055122375</v>
       </c>
       <c r="F3">
-        <v>0.7149999737739563</v>
+        <v>0.8396999835968018</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.9729</v>
+        <v>0.7429</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>698.5535888671875</v>
+        <v>758.06298828125</v>
       </c>
       <c r="C4">
-        <v>0.8161</v>
+        <v>0.8856000000000001</v>
       </c>
       <c r="D4">
-        <v>0.8083</v>
+        <v>0.887</v>
       </c>
       <c r="E4">
-        <v>1.070899963378906</v>
+        <v>0.9375</v>
       </c>
       <c r="F4">
-        <v>0.6565999984741211</v>
+        <v>0.8205999732017517</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>-0.1004</v>
+        <v>0.5968</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>689.817626953125</v>
+        <v>841.2050170898438</v>
       </c>
       <c r="C5">
-        <v>0.7277</v>
+        <v>0.8873</v>
       </c>
       <c r="D5">
-        <v>0.7223000000000001</v>
+        <v>0.8881</v>
       </c>
       <c r="E5">
-        <v>1.173200011253357</v>
+        <v>1.029199957847595</v>
       </c>
       <c r="F5">
-        <v>0.6252999901771545</v>
+        <v>0.8338000178337097</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>-0.8619</v>
+        <v>0.6067</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1083.53369140625</v>
+        <v>1155.6728515625</v>
       </c>
       <c r="C6">
-        <v>0.8572</v>
+        <v>0.9143</v>
       </c>
       <c r="D6">
-        <v>0.861</v>
+        <v>0.9142</v>
       </c>
       <c r="E6">
-        <v>1.206799983978271</v>
+        <v>1.061100006103516</v>
       </c>
       <c r="F6">
-        <v>0.6611999869346619</v>
+        <v>0.8205999732017517</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.3666</v>
+        <v>0.8376</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,19 +586,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>929.9254760742188</v>
+        <v>932.1348876953125</v>
       </c>
       <c r="C7">
-        <v>0.9365</v>
+        <v>0.9387</v>
       </c>
       <c r="D7">
         <v>0.9301999807357788</v>
       </c>
       <c r="E7">
-        <v>1.340499997138977</v>
+        <v>1.124400019645691</v>
       </c>
       <c r="F7">
-        <v>0.7458999752998352</v>
+        <v>0.876800000667572</v>
       </c>
       <c r="G7">
         <v>9.93</v>
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1049.125</v>
+        <v>1042.690795898438</v>
       </c>
       <c r="C8">
-        <v>0.9401</v>
+        <v>0.9343</v>
       </c>
       <c r="D8">
-        <v>0.9298</v>
+        <v>0.9282</v>
       </c>
       <c r="E8">
-        <v>1.392300009727478</v>
+        <v>1.157699942588806</v>
       </c>
       <c r="F8">
-        <v>0.7936000227928162</v>
+        <v>0.883899986743927</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.9761</v>
+        <v>0.9615</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6929.74169921875</v>
+        <v>7147.44091796875</v>
       </c>
       <c r="C9">
-        <v>0.893</v>
+        <v>0.9211</v>
       </c>
       <c r="D9">
-        <v>0.8848</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>2.006400108337402</v>
+        <v>1.264700055122375</v>
       </c>
       <c r="F9">
-        <v>0.6252999901771545</v>
+        <v>0.8205999732017517</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.1945</v>
+        <v>5.5883</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-06-09_L2A.xlsx
+++ b/new_modules/Summary_2023-06-09_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1274.23779296875</v>
+        <v>1286.380859375</v>
       </c>
       <c r="C2">
-        <v>0.9559</v>
+        <v>0.965</v>
       </c>
       <c r="D2">
-        <v>0.9169999957084656</v>
+        <v>0.9168000221252441</v>
       </c>
       <c r="E2">
-        <v>1.233299970626831</v>
+        <v>1.582100033760071</v>
       </c>
       <c r="F2">
-        <v>0.8217999935150146</v>
+        <v>0.6678000092506409</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.8628</v>
+        <v>0.8612</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1143.4365234375</v>
+        <v>1192.406005859375</v>
       </c>
       <c r="C3">
-        <v>0.9147</v>
+        <v>0.9539</v>
       </c>
       <c r="D3">
-        <v>0.9035</v>
+        <v>0.9294</v>
       </c>
       <c r="E3">
-        <v>1.264700055122375</v>
+        <v>2.006400108337402</v>
       </c>
       <c r="F3">
-        <v>0.8396999835968018</v>
+        <v>0.7149999737739563</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.7429</v>
+        <v>0.9729</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>758.06298828125</v>
+        <v>698.5535888671875</v>
       </c>
       <c r="C4">
-        <v>0.8856000000000001</v>
+        <v>0.8161</v>
       </c>
       <c r="D4">
-        <v>0.887</v>
+        <v>0.8083</v>
       </c>
       <c r="E4">
-        <v>0.9375</v>
+        <v>1.070899963378906</v>
       </c>
       <c r="F4">
-        <v>0.8205999732017517</v>
+        <v>0.6565999984741211</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.5968</v>
+        <v>-0.1004</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>841.2050170898438</v>
+        <v>689.817626953125</v>
       </c>
       <c r="C5">
-        <v>0.8873</v>
+        <v>0.7277</v>
       </c>
       <c r="D5">
-        <v>0.8881</v>
+        <v>0.7223000000000001</v>
       </c>
       <c r="E5">
-        <v>1.029199957847595</v>
+        <v>1.173200011253357</v>
       </c>
       <c r="F5">
-        <v>0.8338000178337097</v>
+        <v>0.6252999901771545</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.6067</v>
+        <v>-0.8619</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1155.6728515625</v>
+        <v>1083.53369140625</v>
       </c>
       <c r="C6">
-        <v>0.9143</v>
+        <v>0.8572</v>
       </c>
       <c r="D6">
-        <v>0.9142</v>
+        <v>0.861</v>
       </c>
       <c r="E6">
-        <v>1.061100006103516</v>
+        <v>1.206799983978271</v>
       </c>
       <c r="F6">
-        <v>0.8205999732017517</v>
+        <v>0.6611999869346619</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.8376</v>
+        <v>0.3666</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,19 +586,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>932.1348876953125</v>
+        <v>929.9254760742188</v>
       </c>
       <c r="C7">
-        <v>0.9387</v>
+        <v>0.9365</v>
       </c>
       <c r="D7">
         <v>0.9301999807357788</v>
       </c>
       <c r="E7">
-        <v>1.124400019645691</v>
+        <v>1.340499997138977</v>
       </c>
       <c r="F7">
-        <v>0.876800000667572</v>
+        <v>0.7458999752998352</v>
       </c>
       <c r="G7">
         <v>9.93</v>
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1042.690795898438</v>
+        <v>1049.125</v>
       </c>
       <c r="C8">
-        <v>0.9343</v>
+        <v>0.9401</v>
       </c>
       <c r="D8">
-        <v>0.9282</v>
+        <v>0.9298</v>
       </c>
       <c r="E8">
-        <v>1.157699942588806</v>
+        <v>1.392300009727478</v>
       </c>
       <c r="F8">
-        <v>0.883899986743927</v>
+        <v>0.7936000227928162</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.9615</v>
+        <v>0.9761</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7147.44091796875</v>
+        <v>6929.74169921875</v>
       </c>
       <c r="C9">
-        <v>0.9211</v>
+        <v>0.893</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.264700055122375</v>
+        <v>2.006400108337402</v>
       </c>
       <c r="F9">
-        <v>0.8205999732017517</v>
+        <v>0.6252999901771545</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>5.5883</v>
+        <v>3.1945</v>
       </c>
     </row>
   </sheetData>
